--- a/ClassDemo/classInfo.xlsx
+++ b/ClassDemo/classInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/VINO/ClassDemo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kobezhe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5678BD83-EE0A-114F-B33B-274551CAD5F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0152FC0-FD9A-CC4F-A9DD-5BAC687CFCC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>className </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -92,26 +92,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>第 3、4 节</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第 8、9 节</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第 1、2 节</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第 3 节</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第 6、7 节</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(一)201</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -149,10 +129,6 @@
   </si>
   <si>
     <t>高级信号处理前沿探讨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第 11、12 节</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +509,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,8 +550,8 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
+      <c r="E2" s="1">
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -594,8 +570,8 @@
       <c r="D3" s="1">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
+      <c r="E3" s="1">
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -614,8 +590,8 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
+      <c r="E4" s="1">
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -634,8 +610,8 @@
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
+      <c r="E5" s="1">
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -654,8 +630,8 @@
       <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
+      <c r="E6" s="1">
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
@@ -674,8 +650,8 @@
       <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
+      <c r="E7" s="1">
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -694,16 +670,16 @@
       <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
+      <c r="E8" s="1">
+        <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -714,16 +690,16 @@
       <c r="D9" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
+      <c r="E9" s="1">
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -734,16 +710,16 @@
       <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
+      <c r="E10" s="1">
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -754,16 +730,16 @@
       <c r="D11" s="1">
         <v>5</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
+      <c r="E11" s="1">
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -774,16 +750,16 @@
       <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
+      <c r="E12" s="1">
+        <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -794,11 +770,11 @@
       <c r="D13" s="1">
         <v>5</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>29</v>
+      <c r="E13" s="1">
+        <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
